--- a/team_specific_matrix/Kennesaw St._B.xlsx
+++ b/team_specific_matrix/Kennesaw St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2099125364431487</v>
+        <v>0.2103960396039604</v>
       </c>
       <c r="C2">
-        <v>0.5306122448979592</v>
+        <v>0.5297029702970297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008746355685131196</v>
+        <v>0.007425742574257425</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1486880466472303</v>
+        <v>0.150990099009901</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1020408163265306</v>
+        <v>0.1014851485148515</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01030927835051546</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="C3">
-        <v>0.05154639175257732</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03092783505154639</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7319587628865979</v>
+        <v>0.7268722466960352</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1752577319587629</v>
+        <v>0.1938325991189427</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.725</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.225</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07407407407407407</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01587301587301587</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.126984126984127</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1904761904761905</v>
+        <v>0.1872340425531915</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03174603174603174</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1746031746031746</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R6">
-        <v>0.08465608465608465</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="S6">
-        <v>0.3015873015873016</v>
+        <v>0.3276595744680851</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1344086021505376</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01075268817204301</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04301075268817205</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1451612903225807</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01612903225806452</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1505376344086022</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="R7">
-        <v>0.09139784946236559</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="S7">
-        <v>0.4086021505376344</v>
+        <v>0.4232558139534884</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1435643564356436</v>
+        <v>0.1354581673306773</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03217821782178218</v>
+        <v>0.0298804780876494</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="F8">
-        <v>0.07178217821782178</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1287128712871287</v>
+        <v>0.1294820717131474</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01485148514851485</v>
+        <v>0.01394422310756972</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1410891089108911</v>
+        <v>0.1414342629482072</v>
       </c>
       <c r="R8">
-        <v>0.1113861386138614</v>
+        <v>0.09760956175298804</v>
       </c>
       <c r="S8">
-        <v>0.3564356435643564</v>
+        <v>0.3864541832669323</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1121951219512195</v>
+        <v>0.1003861003861004</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01463414634146342</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04390243902439024</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1463414634146341</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03902439024390244</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1902439024390244</v>
+        <v>0.1737451737451738</v>
       </c>
       <c r="R9">
-        <v>0.08780487804878048</v>
+        <v>0.09266409266409266</v>
       </c>
       <c r="S9">
-        <v>0.3658536585365854</v>
+        <v>0.38996138996139</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.13047363717605</v>
+        <v>0.1239130434782609</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01787310098302055</v>
+        <v>0.01811594202898551</v>
       </c>
       <c r="E10">
-        <v>0.0008936550491510277</v>
+        <v>0.0007246376811594203</v>
       </c>
       <c r="F10">
-        <v>0.06076854334226988</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1179624664879357</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02323503127792672</v>
+        <v>0.02246376811594203</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2064343163538874</v>
+        <v>0.2108695652173913</v>
       </c>
       <c r="R10">
-        <v>0.0840035746201966</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="S10">
-        <v>0.3583556747095621</v>
+        <v>0.363768115942029</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1401869158878505</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1090342679127726</v>
+        <v>0.1093333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2118380062305296</v>
+        <v>0.2186666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5264797507788161</v>
+        <v>0.512</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01246105919003115</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7076023391812866</v>
+        <v>0.7193877551020408</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2456140350877193</v>
+        <v>0.2397959183673469</v>
       </c>
       <c r="K12">
-        <v>0.01169590643274854</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="L12">
-        <v>0.01754385964912281</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01754385964912281</v>
+        <v>0.01530612244897959</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6086956521739131</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3260869565217391</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06521739130434782</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004926108374384237</v>
+        <v>0.016</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1527093596059113</v>
+        <v>0.148</v>
       </c>
       <c r="I15">
-        <v>0.06896551724137931</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J15">
-        <v>0.2758620689655172</v>
+        <v>0.272</v>
       </c>
       <c r="K15">
-        <v>0.07881773399014778</v>
+        <v>0.076</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02955665024630542</v>
+        <v>0.024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08374384236453201</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3054187192118227</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01834862385321101</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2110091743119266</v>
+        <v>0.2103174603174603</v>
       </c>
       <c r="I16">
-        <v>0.1146788990825688</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="J16">
-        <v>0.2935779816513762</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="K16">
-        <v>0.1192660550458716</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02752293577981652</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N16">
-        <v>0.004587155963302753</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="O16">
-        <v>0.04587155963302753</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1651376146788991</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01818181818181818</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1714285714285714</v>
+        <v>0.157563025210084</v>
       </c>
       <c r="I17">
-        <v>0.1506493506493506</v>
+        <v>0.1365546218487395</v>
       </c>
       <c r="J17">
-        <v>0.3688311688311688</v>
+        <v>0.3907563025210084</v>
       </c>
       <c r="K17">
-        <v>0.09610389610389611</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01558441558441558</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06493506493506493</v>
+        <v>0.06512605042016807</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1142857142857143</v>
+        <v>0.1197478991596639</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01063829787234043</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1223404255319149</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="I18">
-        <v>0.1223404255319149</v>
+        <v>0.125</v>
       </c>
       <c r="J18">
-        <v>0.4361702127659575</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="K18">
-        <v>0.1170212765957447</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02659574468085106</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1063829787234043</v>
+        <v>0.09722222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01319261213720317</v>
+        <v>0.01316701316701317</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2102022867194371</v>
+        <v>0.2141372141372141</v>
       </c>
       <c r="I19">
-        <v>0.07563764291996482</v>
+        <v>0.08177408177408177</v>
       </c>
       <c r="J19">
-        <v>0.3605980650835532</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K19">
-        <v>0.1301671064204046</v>
+        <v>0.1205821205821206</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02110817941952507</v>
+        <v>0.01732501732501732</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05892700087950747</v>
+        <v>0.06098406098406099</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1301671064204046</v>
+        <v>0.1330561330561331</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kennesaw St._B.xlsx
+++ b/team_specific_matrix/Kennesaw St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2103960396039604</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C2">
-        <v>0.5297029702970297</v>
+        <v>0.535632183908046</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007425742574257425</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.150990099009901</v>
+        <v>0.1471264367816092</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1014851485148515</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00881057268722467</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C3">
-        <v>0.04405286343612335</v>
+        <v>0.04417670682730924</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02643171806167401</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7268722466960352</v>
+        <v>0.7269076305220884</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1938325991189427</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04081632653061224</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6938775510204082</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2653061224489796</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08085106382978724</v>
+        <v>0.08203125</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01276595744680851</v>
+        <v>0.01171875</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1148936170212766</v>
+        <v>0.11328125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1872340425531915</v>
+        <v>0.19140625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02978723404255319</v>
+        <v>0.03515625</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1702127659574468</v>
+        <v>0.171875</v>
       </c>
       <c r="R6">
-        <v>0.07659574468085106</v>
+        <v>0.0703125</v>
       </c>
       <c r="S6">
-        <v>0.3276595744680851</v>
+        <v>0.32421875</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1348837209302326</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009302325581395349</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03720930232558139</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1395348837209302</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01395348837209302</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1534883720930233</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R7">
-        <v>0.08837209302325581</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S7">
-        <v>0.4232558139534884</v>
+        <v>0.4434782608695652</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1354581673306773</v>
+        <v>0.1337099811676083</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0298804780876494</v>
+        <v>0.032015065913371</v>
       </c>
       <c r="E8">
-        <v>0.00199203187250996</v>
+        <v>0.001883239171374765</v>
       </c>
       <c r="F8">
-        <v>0.06374501992031872</v>
+        <v>0.064030131826742</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1294820717131474</v>
+        <v>0.128060263653484</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01394422310756972</v>
+        <v>0.01318267419962335</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1414342629482072</v>
+        <v>0.1431261770244821</v>
       </c>
       <c r="R8">
-        <v>0.09760956175298804</v>
+        <v>0.09981167608286252</v>
       </c>
       <c r="S8">
-        <v>0.3864541832669323</v>
+        <v>0.384180790960452</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1003861003861004</v>
+        <v>0.1083032490974729</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0193050193050193</v>
+        <v>0.01805054151624549</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05019305019305019</v>
+        <v>0.05054151624548736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1407942238267148</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03088803088803089</v>
+        <v>0.03249097472924187</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1737451737451738</v>
+        <v>0.1732851985559567</v>
       </c>
       <c r="R9">
-        <v>0.09266409266409266</v>
+        <v>0.08664259927797834</v>
       </c>
       <c r="S9">
-        <v>0.38996138996139</v>
+        <v>0.3898916967509025</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1239130434782609</v>
+        <v>0.1244952893674293</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01811594202898551</v>
+        <v>0.01816958277254374</v>
       </c>
       <c r="E10">
-        <v>0.0007246376811594203</v>
+        <v>0.0006729475100942127</v>
       </c>
       <c r="F10">
-        <v>0.06521739130434782</v>
+        <v>0.06729475100942127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1166666666666667</v>
+        <v>0.1157469717362046</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02246376811594203</v>
+        <v>0.02220726783310902</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2108695652173913</v>
+        <v>0.2072678331090175</v>
       </c>
       <c r="R10">
-        <v>0.0782608695652174</v>
+        <v>0.08344549125168237</v>
       </c>
       <c r="S10">
-        <v>0.363768115942029</v>
+        <v>0.360699865410498</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1466666666666667</v>
+        <v>0.1528822055137845</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1093333333333333</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="K11">
-        <v>0.2186666666666667</v>
+        <v>0.2230576441102757</v>
       </c>
       <c r="L11">
-        <v>0.512</v>
+        <v>0.4987468671679198</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.012531328320802</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7193877551020408</v>
+        <v>0.729064039408867</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2397959183673469</v>
+        <v>0.2315270935960591</v>
       </c>
       <c r="K12">
-        <v>0.01020408163265306</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="L12">
-        <v>0.01530612244897959</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01530612244897959</v>
+        <v>0.01477832512315271</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6122448979591837</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3265306122448979</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06122448979591837</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.016</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.148</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="I15">
-        <v>0.08400000000000001</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="J15">
-        <v>0.272</v>
+        <v>0.2771535580524345</v>
       </c>
       <c r="K15">
-        <v>0.076</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.024</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08799999999999999</v>
+        <v>0.09363295880149813</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.292</v>
+        <v>0.2846441947565543</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01587301587301587</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2103174603174603</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="I16">
-        <v>0.1150793650793651</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="J16">
-        <v>0.3015873015873016</v>
+        <v>0.3198529411764706</v>
       </c>
       <c r="K16">
-        <v>0.1150793650793651</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02380952380952381</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N16">
-        <v>0.003968253968253968</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1666666666666667</v>
+        <v>0.1580882352941176</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01680672268907563</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.157563025210084</v>
+        <v>0.1577909270216963</v>
       </c>
       <c r="I17">
-        <v>0.1365546218487395</v>
+        <v>0.1380670611439842</v>
       </c>
       <c r="J17">
-        <v>0.3907563025210084</v>
+        <v>0.3925049309664694</v>
       </c>
       <c r="K17">
-        <v>0.09663865546218488</v>
+        <v>0.09861932938856016</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01680672268907563</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06512605042016807</v>
+        <v>0.0611439842209073</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1197478991596639</v>
+        <v>0.1203155818540434</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01388888888888889</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1296296296296296</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="I18">
-        <v>0.125</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="J18">
-        <v>0.4537037037037037</v>
+        <v>0.4703389830508475</v>
       </c>
       <c r="K18">
-        <v>0.1018518518518518</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02314814814814815</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09722222222222222</v>
+        <v>0.09322033898305085</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01316701316701317</v>
+        <v>0.01431359791802212</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2141372141372141</v>
+        <v>0.214053350683149</v>
       </c>
       <c r="I19">
-        <v>0.08177408177408177</v>
+        <v>0.08327911515940144</v>
       </c>
       <c r="J19">
-        <v>0.358974358974359</v>
+        <v>0.3604424202992843</v>
       </c>
       <c r="K19">
-        <v>0.1205821205821206</v>
+        <v>0.1171112556929083</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01732501732501732</v>
+        <v>0.01951854261548471</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06098406098406099</v>
+        <v>0.06115810019518542</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1330561330561331</v>
+        <v>0.1301236174365647</v>
       </c>
     </row>
   </sheetData>
